--- a/Planning/20200302_Finance.xlsx
+++ b/Planning/20200302_Finance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drasv\Documents\GitHub\LocalisationWorkshopPreparations\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drasv\GitHub\LocalisationWorkshopPreparations\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC350A25-D49E-4DFA-8519-75B2C2CF580F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BCB501-B84F-45DE-BE6D-EF8D0675C903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{564A0AA4-FDEE-487C-91A0-D7F0F3E6E0CF}"/>
+    <workbookView xWindow="30825" yWindow="0" windowWidth="17880" windowHeight="13245" xr2:uid="{564A0AA4-FDEE-487C-91A0-D7F0F3E6E0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="TinyTronics" sheetId="2" r:id="rId1"/>
@@ -255,12 +255,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -276,10 +282,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -598,16 +606,18 @@
   <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
@@ -628,26 +638,27 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="b">
+      <c r="D3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>49.2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <f>F3/E3</f>
         <v>3.2800000000000002</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H3" s="3"/>
+      <c r="I3" s="4">
         <f>IF(D3,G3,"")</f>
         <v>3.2800000000000002</v>
       </c>
@@ -669,10 +680,10 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E5">
+      <c r="E5" s="3">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>98.4</v>
       </c>
       <c r="G5" s="1">
@@ -731,19 +742,22 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <v>4</v>
       </c>
-      <c r="G10" s="1">
+      <c r="F10" s="3"/>
+      <c r="G10" s="4">
         <v>0.1</v>
       </c>
-      <c r="I10" s="1">
+      <c r="H10" s="3"/>
+      <c r="I10" s="4">
         <v>0.4</v>
       </c>
     </row>
@@ -781,26 +795,27 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="D14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
         <v>8</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <f>F14/E14</f>
         <v>8</v>
       </c>
-      <c r="I14" s="1">
+      <c r="H14" s="3"/>
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -813,19 +828,22 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4">
         <v>6.5</v>
       </c>
-      <c r="I16" s="1">
+      <c r="H16" s="3"/>
+      <c r="I16" s="4">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
